--- a/demonstrament/projects/001/development.000.xlsx
+++ b/demonstrament/projects/001/development.000.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="VINE_0" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="VIRE" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="VERS" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="VIEW" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="VERS" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="VIEW" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="VELI" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -1564,7 +1564,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1624,7 +1624,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1632,8 +1632,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1728,7 +1728,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2157,12 +2157,12 @@
   </sheetPr>
   <dimension ref="A1:BG63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T1" activeCellId="0" sqref="T1:BF1"/>
+      <selection pane="bottomRight" activeCell="T1" activeCellId="0" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8653,7 +8653,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="9" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I81" activeCellId="1" sqref="T1:BF1 I81"/>
+      <selection pane="topRight" activeCell="I81" activeCellId="0" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14556,7 +14556,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="1" sqref="T1:BF1 B49"/>
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15018,12 +15018,12 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="1" sqref="T1:BF1 A4"/>
+      <selection pane="bottomRight" activeCell="M29" activeCellId="0" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15992,7 +15992,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" activeCellId="1" sqref="T1:BF1 A5"/>
+      <selection pane="bottomRight" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18341,7 +18341,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="T1:BF1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.000.xlsx
+++ b/demonstrament/projects/001/development.000.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -856,7 +856,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -878,13 +877,11 @@
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -892,7 +889,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -900,7 +896,6 @@
       <color rgb="FFC9211E"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -908,7 +903,6 @@
       <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -916,21 +910,18 @@
       <color rgb="FF0000FF"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -938,26 +929,22 @@
       <color rgb="FFFFFF00"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="8"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="32">
@@ -1564,7 +1551,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1624,7 +1611,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1632,8 +1619,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1728,7 +1715,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2157,12 +2144,12 @@
   </sheetPr>
   <dimension ref="A1:BG63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15018,7 +15005,7 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -15126,7 +15113,7 @@
       </c>
       <c r="P3" s="68"/>
     </row>
-    <row r="4" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="72" t="n">
         <f aca="false">VINE_0!$A$54</f>
         <v>54</v>
@@ -15157,7 +15144,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="68"/>
     </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="80"/>
       <c r="B5" s="81"/>
       <c r="C5" s="82" t="s">
@@ -15185,7 +15172,7 @@
       <c r="O5" s="91"/>
       <c r="P5" s="68"/>
     </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="80"/>
       <c r="B6" s="81"/>
       <c r="C6" s="82" t="s">
@@ -15213,7 +15200,7 @@
       <c r="O6" s="91"/>
       <c r="P6" s="68"/>
     </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="80"/>
       <c r="B7" s="81"/>
       <c r="C7" s="82" t="s">
@@ -15239,7 +15226,7 @@
       <c r="O7" s="91"/>
       <c r="P7" s="68"/>
     </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="80"/>
       <c r="B8" s="81"/>
       <c r="C8" s="82"/>
@@ -15261,7 +15248,7 @@
       <c r="O8" s="91"/>
       <c r="P8" s="68"/>
     </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="80"/>
       <c r="B9" s="81"/>
       <c r="C9" s="82"/>
@@ -15285,7 +15272,7 @@
       <c r="O9" s="91"/>
       <c r="P9" s="68"/>
     </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="80"/>
       <c r="B10" s="81"/>
       <c r="C10" s="82"/>
@@ -15309,7 +15296,7 @@
       <c r="O10" s="91"/>
       <c r="P10" s="68"/>
     </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="80"/>
       <c r="B11" s="81"/>
       <c r="C11" s="82"/>
@@ -15333,7 +15320,7 @@
       <c r="O11" s="95"/>
       <c r="P11" s="68"/>
     </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="80"/>
       <c r="B12" s="81"/>
       <c r="C12" s="82"/>
@@ -15353,7 +15340,7 @@
       <c r="O12" s="95"/>
       <c r="P12" s="68"/>
     </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="80"/>
       <c r="B13" s="81"/>
       <c r="C13" s="82"/>
@@ -15373,7 +15360,7 @@
       <c r="O13" s="95"/>
       <c r="P13" s="68"/>
     </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="80"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
@@ -15397,7 +15384,7 @@
       <c r="O14" s="95"/>
       <c r="P14" s="68"/>
     </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="80"/>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
@@ -15421,7 +15408,7 @@
       <c r="O15" s="91"/>
       <c r="P15" s="68"/>
     </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
       <c r="C16" s="82"/>
@@ -15445,7 +15432,7 @@
       <c r="O16" s="91"/>
       <c r="P16" s="68"/>
     </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="80"/>
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
@@ -15469,7 +15456,7 @@
       <c r="O17" s="91"/>
       <c r="P17" s="68"/>
     </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="80"/>
       <c r="B18" s="81"/>
       <c r="C18" s="82"/>
@@ -15489,7 +15476,7 @@
       <c r="O18" s="91"/>
       <c r="P18" s="68"/>
     </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="80"/>
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
@@ -15509,7 +15496,7 @@
       <c r="O19" s="91"/>
       <c r="P19" s="68"/>
     </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="80"/>
       <c r="B20" s="81"/>
       <c r="C20" s="82"/>
@@ -15533,7 +15520,7 @@
       <c r="O20" s="91"/>
       <c r="P20" s="68"/>
     </row>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="96"/>
       <c r="B21" s="97"/>
       <c r="C21" s="98" t="s">
@@ -15556,7 +15543,7 @@
       <c r="O21" s="103"/>
       <c r="P21" s="68"/>
     </row>
-    <row r="22" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="72" t="n">
         <f aca="false">VINE_0!$A$55</f>
         <v>55</v>
@@ -15587,7 +15574,7 @@
       <c r="O22" s="79"/>
       <c r="P22" s="68"/>
     </row>
-    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="80"/>
       <c r="B23" s="81"/>
       <c r="C23" s="82" t="s">
@@ -15615,7 +15602,7 @@
       <c r="O23" s="91"/>
       <c r="P23" s="68"/>
     </row>
-    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="80"/>
       <c r="B24" s="81"/>
       <c r="C24" s="82" t="s">
@@ -15643,7 +15630,7 @@
       <c r="O24" s="91"/>
       <c r="P24" s="68"/>
     </row>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="80"/>
       <c r="B25" s="81"/>
       <c r="C25" s="82" t="s">
@@ -15669,7 +15656,7 @@
       <c r="O25" s="91"/>
       <c r="P25" s="68"/>
     </row>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="80"/>
       <c r="B26" s="81"/>
       <c r="C26" s="82"/>
@@ -15693,7 +15680,7 @@
       <c r="O26" s="91"/>
       <c r="P26" s="68"/>
     </row>
-    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="80"/>
       <c r="B27" s="81"/>
       <c r="C27" s="82"/>
@@ -15717,7 +15704,7 @@
       <c r="O27" s="91"/>
       <c r="P27" s="68"/>
     </row>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="80"/>
       <c r="B28" s="81"/>
       <c r="C28" s="82"/>
@@ -15741,7 +15728,7 @@
       <c r="O28" s="91"/>
       <c r="P28" s="68"/>
     </row>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="80"/>
       <c r="B29" s="81"/>
       <c r="C29" s="82"/>
@@ -15765,7 +15752,7 @@
       <c r="O29" s="91"/>
       <c r="P29" s="68"/>
     </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="80"/>
       <c r="B30" s="81"/>
       <c r="C30" s="82"/>
@@ -15789,7 +15776,7 @@
       <c r="O30" s="91"/>
       <c r="P30" s="68"/>
     </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="80"/>
       <c r="B31" s="81"/>
       <c r="C31" s="82"/>
@@ -15813,7 +15800,7 @@
       <c r="O31" s="91"/>
       <c r="P31" s="68"/>
     </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="80"/>
       <c r="B32" s="81"/>
       <c r="C32" s="82"/>
@@ -15837,7 +15824,7 @@
       <c r="O32" s="91"/>
       <c r="P32" s="68"/>
     </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="96"/>
       <c r="B33" s="97"/>
       <c r="C33" s="104" t="s">
@@ -15860,7 +15847,7 @@
       <c r="O33" s="109"/>
       <c r="P33" s="68"/>
     </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="68"/>
       <c r="B34" s="110"/>
       <c r="C34" s="68"/>
@@ -15890,71 +15877,71 @@
       <c r="O34" s="114"/>
       <c r="P34" s="68"/>
     </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
